--- a/01_要求分析/テスト仕様書（システム）.xlsx
+++ b/01_要求分析/テスト仕様書（システム）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1356\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\チーム09_チョコミント\01_要求分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_41BE243C7ABBF0894F88B75570D4B8164CF08983" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A02F6B73-ADD3-4A05-AD30-F12F92AA3750}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA05CE5-4717-43AA-924A-1E558E5C8FE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="11700" windowHeight="8550" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記述例" sheetId="3" r:id="rId1"/>
@@ -21,9 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -179,13 +177,6 @@
 </t>
   </si>
   <si>
-    <t>表示結果に
-勝者:先攻
-ターン履歴
-つけたマーク
-が表示される。</t>
-  </si>
-  <si>
     <t>ゲームが成立するか確認する（引き分け）</t>
     <rPh sb="4" eb="6">
       <t>セイリツ</t>
@@ -202,13 +193,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>表示結果に
-引き分け
-ターン履歴
-つけたマーク
-が表示される。</t>
-  </si>
-  <si>
     <t>ゲームが成立するか確認する（勝敗が決まる）</t>
     <rPh sb="14" eb="16">
       <t>ショウハイ</t>
@@ -218,12 +202,52 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t xml:space="preserve">
+勝者:先攻
+＜ターン履歴＞
+先攻:(1,1) ○
+後攻:(1,2) ×
+先攻:(2,2) ○
+後攻:(2,3) ×
+先攻:(3,3) ○
+------------
+| ○ | × |   |
+------------
+|   | ○ | × |
+------------
+|   |   | ○ |
+------------</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+引き分け
+ターン履歴
+先攻：(1,1) 〇
+後攻：(3,1) ×
+先攻：(2,1) 〇
+後攻：(1,2) ×
+先攻：(3,2) 〇
+後攻：(2,2) ×
+先攻：(1,3) 〇
+後攻：(3,3) ×
+先攻：(2,3) 〇
+------------
+| ○ | × | ○ |
+------------
+| ○ | × | ○ |
+------------
+| × | ○ | × |
+------------</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -500,25 +524,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -526,21 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,17 +557,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,11 +930,11 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -919,106 +943,106 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-    </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-    </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B4" s="26" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+    </row>
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+    </row>
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1064,7 +1088,7 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1110,595 +1134,595 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="2:45">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
+      <c r="B6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="7" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="7" t="s">
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="7" t="s">
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="7" t="s">
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="7" t="s">
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="7" t="s">
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="9"/>
-    </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1">
-      <c r="B7" s="16" t="s">
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="25"/>
+    </row>
+    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="13"/>
-    </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="22"/>
+    </row>
+    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="13"/>
-    </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1">
-      <c r="B9" s="16" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="22"/>
+    </row>
+    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="13"/>
-    </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1">
-      <c r="B10" s="16" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="22"/>
+    </row>
+    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="13"/>
-    </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1">
-      <c r="B11" s="16" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="22"/>
+    </row>
+    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="13"/>
-    </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1">
-      <c r="B12" s="16" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="22"/>
+    </row>
+    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="13"/>
-    </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="22"/>
+    </row>
+    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="13"/>
-    </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="22"/>
+    </row>
+    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="13"/>
-    </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="22"/>
+    </row>
+    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="13"/>
-    </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="22"/>
+    </row>
+    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="13"/>
-    </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="22"/>
+    </row>
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="21"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="98">
@@ -1815,11 +1839,11 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -1828,106 +1852,106 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-    </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-    </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B4" s="26" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+    </row>
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+    </row>
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1973,7 +1997,7 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2019,595 +2043,595 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="2:45">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
+      <c r="B6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="7" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="7" t="s">
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="7" t="s">
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="7" t="s">
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="7" t="s">
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="7" t="s">
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="9"/>
-    </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1">
-      <c r="B7" s="16" t="s">
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="25"/>
+    </row>
+    <row r="7" spans="2:45" ht="229.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="22"/>
+    </row>
+    <row r="8" spans="2:45" ht="252" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="13"/>
-    </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1">
-      <c r="B8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="13"/>
-    </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1">
-      <c r="B9" s="16" t="s">
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="22"/>
+    </row>
+    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="13"/>
-    </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1">
-      <c r="B10" s="16" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="22"/>
+    </row>
+    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="13"/>
-    </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="22"/>
+    </row>
+    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="13"/>
-    </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="22"/>
+    </row>
+    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="13"/>
-    </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="22"/>
+    </row>
+    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="13"/>
-    </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="22"/>
+    </row>
+    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="13"/>
-    </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="22"/>
+    </row>
+    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="13"/>
-    </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="22"/>
+    </row>
+    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="13"/>
-    </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="22"/>
+    </row>
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="21"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="98">
